--- a/estim_inf_hnd.xlsx
+++ b/estim_inf_hnd.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\francisco.henriquez\Mis documentos\proyectos\informalidad_hnd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_DCB880E71C2DEAF26DF1D0F070DE22D23054B976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACFB975D-733D-4DD5-A1C7-96435E64D013}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5880"/>
+    <workbookView xWindow="3525" yWindow="330" windowWidth="18045" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Estimaciones de informalidad para Honduras</t>
   </si>
@@ -40,11 +41,14 @@
   <si>
     <t>WB MIM IC</t>
   </si>
+  <si>
+    <t>Monetario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -94,12 +98,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,35 +389,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E23"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -418,8 +431,9 @@
       <c r="E5" s="2">
         <v>49.599998474121094</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>2001</v>
       </c>
@@ -432,8 +446,9 @@
       <c r="E6" s="2">
         <v>50.168167114257813</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>2002</v>
       </c>
@@ -446,8 +461,11 @@
       <c r="E7" s="2">
         <v>50.136646270751953</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="2">
+        <v>48.707879999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>2003</v>
       </c>
@@ -460,8 +478,11 @@
       <c r="E8" s="2">
         <v>50.664600372314453</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="2">
+        <v>48.193260000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2004</v>
       </c>
@@ -474,8 +495,11 @@
       <c r="E9" s="2">
         <v>50.559043884277344</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="2">
+        <v>47.273989999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>2005</v>
       </c>
@@ -488,8 +512,11 @@
       <c r="E10" s="2">
         <v>49.568305969238281</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="2">
+        <v>47.226709999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>2006</v>
       </c>
@@ -502,8 +529,11 @@
       <c r="E11" s="2">
         <v>48.276863098144531</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="2">
+        <v>46.393709999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>2007</v>
       </c>
@@ -516,8 +546,11 @@
       <c r="E12" s="2">
         <v>47.801750183105469</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="2">
+        <v>45.089120000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>2008</v>
       </c>
@@ -530,8 +563,11 @@
       <c r="E13" s="2">
         <v>47.986766815185547</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="2">
+        <v>45.373370000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>2009</v>
       </c>
@@ -544,8 +580,11 @@
       <c r="E14" s="2">
         <v>49.374965667724609</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="2">
+        <v>47.67942</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>2010</v>
       </c>
@@ -558,8 +597,11 @@
       <c r="E15" s="2">
         <v>49.515209197998047</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="2">
+        <v>47.359160000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>2011</v>
       </c>
@@ -572,8 +614,11 @@
       <c r="E16" s="2">
         <v>48.184028625488281</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="2">
+        <v>46.924019999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>2012</v>
       </c>
@@ -586,8 +631,11 @@
       <c r="E17" s="2">
         <v>48.257556915283203</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="2">
+        <v>46.969149999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>2013</v>
       </c>
@@ -600,8 +648,11 @@
       <c r="E18" s="2">
         <v>48.324943542480469</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="2">
+        <v>46.596229999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>2014</v>
       </c>
@@ -614,8 +665,11 @@
       <c r="E19" s="2">
         <v>48.005313873291016</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="2">
+        <v>44.912680000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>2015</v>
       </c>
@@ -628,8 +682,11 @@
       <c r="E20" s="2">
         <v>47.750396728515625</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="2">
+        <v>44.041760000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>2016</v>
       </c>
@@ -640,8 +697,11 @@
       <c r="E21" s="2">
         <v>47.328853607177734</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="2">
+        <v>42.996279999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>2017</v>
       </c>
@@ -652,8 +712,11 @@
       <c r="E22" s="2">
         <v>45.464218139648438</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F22" s="2">
+        <v>43.081399999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>2018</v>
       </c>
@@ -662,8 +725,44 @@
       <c r="E23" s="2">
         <v>45.554008483886719</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.15">
+      <c r="F23" s="2">
+        <v>42.911789999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>43.906420000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>46.950890000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>44.092590000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>
     </row>
   </sheetData>

--- a/estim_inf_hnd.xlsx
+++ b/estim_inf_hnd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_DCB880E71C2DEAF26DF1D0F070DE22D23054B976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACFB975D-733D-4DD5-A1C7-96435E64D013}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_DCB880E71C2DEAF26DF1D0F070DE22D23054B976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD6DA30-5343-43CE-9FB5-C54A4B38A1AB}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="330" windowWidth="18045" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Estimaciones de informalidad para Honduras</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Monetario</t>
+  </si>
+  <si>
+    <t>ic_inferior</t>
+  </si>
+  <si>
+    <t>ic_superior</t>
   </si>
 </sst>
 </file>
@@ -390,20 +396,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -419,8 +425,14 @@
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -432,8 +444,10 @@
         <v>49.599998474121094</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>2001</v>
       </c>
@@ -447,8 +461,10 @@
         <v>50.168167114257813</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>2002</v>
       </c>
@@ -464,8 +480,14 @@
       <c r="F7" s="2">
         <v>48.707879999999996</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="2">
+        <v>48.528110000000005</v>
+      </c>
+      <c r="H7" s="2">
+        <v>48.887650000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>2003</v>
       </c>
@@ -481,8 +503,14 @@
       <c r="F8" s="2">
         <v>48.193260000000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="2">
+        <v>48.013489999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>48.37303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2004</v>
       </c>
@@ -498,8 +526,14 @@
       <c r="F9" s="2">
         <v>47.273989999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="2">
+        <v>47.094229999999996</v>
+      </c>
+      <c r="H9" s="2">
+        <v>47.453760000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>2005</v>
       </c>
@@ -515,8 +549,14 @@
       <c r="F10" s="2">
         <v>47.226709999999997</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="2">
+        <v>47.046939999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>47.406469999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>2006</v>
       </c>
@@ -532,8 +572,14 @@
       <c r="F11" s="2">
         <v>46.393709999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="2">
+        <v>46.213940000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <v>46.573480000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>2007</v>
       </c>
@@ -549,8 +595,14 @@
       <c r="F12" s="2">
         <v>45.089120000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="2">
+        <v>44.90936</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45.268889999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>2008</v>
       </c>
@@ -566,8 +618,14 @@
       <c r="F13" s="2">
         <v>45.373370000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="2">
+        <v>45.193600000000004</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45.553129999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>2009</v>
       </c>
@@ -583,8 +641,14 @@
       <c r="F14" s="2">
         <v>47.67942</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="2">
+        <v>47.499649999999995</v>
+      </c>
+      <c r="H14" s="2">
+        <v>47.859189999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>2010</v>
       </c>
@@ -600,8 +664,14 @@
       <c r="F15" s="2">
         <v>47.359160000000003</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="2">
+        <v>47.179389999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>47.538930000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>2011</v>
       </c>
@@ -617,8 +687,14 @@
       <c r="F16" s="2">
         <v>46.924019999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2">
+        <v>46.744250000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>47.103790000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>2012</v>
       </c>
@@ -634,8 +710,14 @@
       <c r="F17" s="2">
         <v>46.969149999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2">
+        <v>46.789380000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>47.148919999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>2013</v>
       </c>
@@ -651,8 +733,14 @@
       <c r="F18" s="2">
         <v>46.596229999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="2">
+        <v>46.416460000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>46.776000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>2014</v>
       </c>
@@ -668,8 +756,14 @@
       <c r="F19" s="2">
         <v>44.912680000000002</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="2">
+        <v>44.732909999999997</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45.092440000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>2015</v>
       </c>
@@ -685,8 +779,14 @@
       <c r="F20" s="2">
         <v>44.041760000000004</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2">
+        <v>43.861989999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44.221530000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>2016</v>
       </c>
@@ -700,8 +800,14 @@
       <c r="F21" s="2">
         <v>42.996279999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2">
+        <v>42.816510000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43.176049999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>2017</v>
       </c>
@@ -715,8 +821,14 @@
       <c r="F22" s="2">
         <v>43.081399999999995</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2">
+        <v>42.901630000000004</v>
+      </c>
+      <c r="H22" s="2">
+        <v>43.26117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>2018</v>
       </c>
@@ -728,8 +840,14 @@
       <c r="F23" s="2">
         <v>42.911789999999996</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2">
+        <v>42.732019999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>43.091560000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>2019</v>
       </c>
@@ -739,8 +857,14 @@
       <c r="F24" s="2">
         <v>43.906420000000004</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="2">
+        <v>43.726660000000003</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44.086189999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>2020</v>
       </c>
@@ -750,8 +874,14 @@
       <c r="F25" s="2">
         <v>46.950890000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="2">
+        <v>46.771119999999996</v>
+      </c>
+      <c r="H25" s="2">
+        <v>47.130659999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>2021</v>
       </c>
@@ -761,8 +891,14 @@
       <c r="F26" s="2">
         <v>44.092590000000001</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="G26" s="2">
+        <v>43.912820000000004</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44.272359999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>
     </row>
   </sheetData>
